--- a/biology/Biochimie/Russell_Henry_Chittenden/Russell_Henry_Chittenden.xlsx
+++ b/biology/Biochimie/Russell_Henry_Chittenden/Russell_Henry_Chittenden.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Russell Henry Chittenden (New Haven, Connecticut, 18 février 1856 - New Haven, 26 décembre 1943) est un biochimiste américain. Souvent surnommé « le père de la biochimie américaine », il fut un spécialiste de la chimie de la nutrition et l'un des fondateurs de la Physiological Society of America.
 Chittenden étudia à l'Université Yale et l'Université de Heidelberg. Il fut professeur de chimie à Yale de 1882 à 1922, chargé de cours à l'Université Columbia et membre de l'United States National Research Council.
@@ -513,7 +525,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) G.R. C., 1944. Russell Henry Chittenden, February 18, 1856 - December 26, 1943. An appreciation. J. Nutr., 28 (1), 2-6. Article
 (en) Lewis, H.B., 1944. Russell Henry Chittenden, (1856 - 1943). The Journal of Biological Chemistry, 153 (2), 339-342. Article
